--- a/data/trans_orig/IP16A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A09-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF89AA88-B3AA-4E9E-8528-E51C1595AD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D962A761-F0B3-43FA-A81A-E4DF84709142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA41C9A3-C1D0-468B-BC79-3BFE5B80EC1B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B10F8858-8A0F-4F4C-91D7-A6C7E6C744E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="187">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -106,13 +106,13 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>13,89%</t>
+    <t>14,03%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>5,76%</t>
+    <t>5,97%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -121,13 +121,13 @@
     <t>97,29%</t>
   </si>
   <si>
-    <t>86,11%</t>
+    <t>85,97%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>94,24%</t>
+    <t>94,03%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -136,439 +136,457 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>4,42%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para los vómitos en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>96,51%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -580,7 +598,7 @@
     <t>96,88%</t>
   </si>
   <si>
-    <t>99,24%</t>
+    <t>99,27%</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911067D4-6991-41D4-A77A-1C5976D87815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BC789D-2B17-4971-9A4F-E54F48B106B7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1893,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C6A740-11A7-464E-ABB6-2DCF29CCA3F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCD638B-6560-4484-B95A-EAA4FE9967BF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2625,7 +2643,7 @@
         <v>121</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2634,13 +2652,13 @@
         <v>3501</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -2649,13 +2667,13 @@
         <v>9083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2688,13 @@
         <v>185896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7">
         <v>264</v>
@@ -2685,13 +2703,13 @@
         <v>183491</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M17" s="7">
         <v>527</v>
@@ -2700,13 +2718,13 @@
         <v>369387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852669B6-6F74-417B-AF48-64183687A308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFF979D-AEE2-4707-8673-79B2CD1DC9B1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2799,7 +2817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3049,7 +3067,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3064,7 +3082,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3079,7 +3097,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3115,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -3112,7 +3130,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3127,7 +3145,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3198,13 +3216,13 @@
         <v>2099</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3213,13 +3231,13 @@
         <v>2277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3228,13 +3246,13 @@
         <v>4376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3267,13 @@
         <v>95593</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>158</v>
@@ -3264,13 +3282,13 @@
         <v>103633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>298</v>
@@ -3279,13 +3297,13 @@
         <v>199225</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3371,13 @@
         <v>700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3374,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3383,13 +3401,13 @@
         <v>700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,10 +3422,10 @@
         <v>36959</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3422,7 +3440,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3434,10 +3452,10 @@
         <v>74729</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -3508,13 +3526,13 @@
         <v>2799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3523,13 +3541,13 @@
         <v>2277</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3538,13 +3556,13 @@
         <v>5075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3577,13 @@
         <v>145326</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
         <v>241</v>
@@ -3574,13 +3592,13 @@
         <v>160259</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -3589,13 +3607,13 @@
         <v>305586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D962A761-F0B3-43FA-A81A-E4DF84709142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2208FC8A-8440-445F-A1B3-6628D9ECD17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B10F8858-8A0F-4F4C-91D7-A6C7E6C744E5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{54E07C6F-62D7-4FC6-9A1B-0E85756A4B58}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="173">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,223 +67,199 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>13,81%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>93,85%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>94,03%</t>
+    <t>94,25%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>5,54%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>94,46%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>9,46%</t>
+  </si>
+  <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -292,313 +268,295 @@
     <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>12,22%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>6,67%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>87,78%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>93,33%</t>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2016 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>6,81%</t>
+  </si>
+  <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
     <t>4,16%</t>
   </si>
   <si>
+    <t>93,19%</t>
+  </si>
+  <si>
     <t>90,01%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
     <t>95,84%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>8,41%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>91,59%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>95,41%</t>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +968,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BC789D-2B17-4971-9A4F-E54F48B106B7}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531E44B5-5445-40BF-BBE3-D5165706A40C}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1128,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1145,79 +1103,83 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>21450</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20258</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>41707</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1226,151 +1188,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>4083</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1289</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>598</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>598</v>
+        <v>5372</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7">
-        <v>20258</v>
+        <v>76624</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="I8" s="7">
-        <v>21450</v>
+        <v>86380</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="N8" s="7">
-        <v>41707</v>
+        <v>163004</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,153 +1343,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1289</v>
+        <v>517</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>4083</v>
+        <v>1983</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>5372</v>
+        <v>2500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>86380</v>
+        <v>22034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>76624</v>
+        <v>33283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="N11" s="7">
-        <v>163004</v>
+        <v>55316</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,153 +1498,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>1983</v>
+        <v>5197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>517</v>
+        <v>3272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>2500</v>
+        <v>8469</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="D14" s="7">
-        <v>33283</v>
+        <v>120108</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="I14" s="7">
-        <v>22034</v>
+        <v>139921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>83</v>
+        <v>390</v>
       </c>
       <c r="N14" s="7">
-        <v>55316</v>
+        <v>260029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,216 +1653,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N15" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3272</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5197</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="7">
-        <v>14</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8469</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>210</v>
-      </c>
-      <c r="D17" s="7">
-        <v>140647</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="7">
-        <v>181</v>
-      </c>
-      <c r="I17" s="7">
-        <v>120108</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="7">
-        <v>391</v>
-      </c>
-      <c r="N17" s="7">
-        <v>260755</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1911,8 +1719,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCD638B-6560-4484-B95A-EAA4FE9967BF}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FB5850-7BAD-45DB-82AE-F2B9111D1E23}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1928,7 +1736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2031,86 +1839,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>607</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>607</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25523</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22245</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="N5" s="7">
+        <v>47768</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,147 +1939,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25523</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>22852</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="N6" s="7">
+        <v>48375</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>607</v>
+        <v>2558</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4975</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="7">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
       <c r="N7" s="7">
-        <v>607</v>
+        <v>7533</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="D8" s="7">
-        <v>22245</v>
+        <v>113051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="I8" s="7">
-        <v>25523</v>
+        <v>118419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
-        <v>68</v>
+        <v>333</v>
       </c>
       <c r="N8" s="7">
-        <v>47768</v>
+        <v>231470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,153 +2094,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>22852</v>
+        <v>115609</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="I9" s="7">
-        <v>25523</v>
+        <v>123394</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>48375</v>
+        <v>239003</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>4975</v>
+        <v>944</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2558</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>7533</v>
+        <v>944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7">
-        <v>118419</v>
+        <v>44915</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>113051</v>
+        <v>45232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>333</v>
+        <v>126</v>
       </c>
       <c r="N11" s="7">
-        <v>231470</v>
+        <v>90147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,153 +2249,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7">
-        <v>123394</v>
+        <v>45859</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>115609</v>
+        <v>45232</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>344</v>
+        <v>127</v>
       </c>
       <c r="N12" s="7">
-        <v>239003</v>
+        <v>91091</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>3501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>944</v>
+        <v>5582</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>944</v>
+        <v>9083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="D14" s="7">
-        <v>45232</v>
+        <v>183491</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="I14" s="7">
-        <v>44915</v>
+        <v>185896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
+        <v>527</v>
+      </c>
+      <c r="N14" s="7">
+        <v>369387</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="N14" s="7">
-        <v>90147</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,216 +2404,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>62</v>
+        <v>269</v>
       </c>
       <c r="D15" s="7">
-        <v>45232</v>
+        <v>186992</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="I15" s="7">
-        <v>45859</v>
+        <v>191478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>127</v>
+        <v>540</v>
       </c>
       <c r="N15" s="7">
-        <v>91091</v>
+        <v>378470</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5582</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3501</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="7">
-        <v>13</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9083</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>263</v>
-      </c>
-      <c r="D17" s="7">
-        <v>185896</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="7">
-        <v>264</v>
-      </c>
-      <c r="I17" s="7">
-        <v>183491</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" s="7">
-        <v>527</v>
-      </c>
-      <c r="N17" s="7">
-        <v>369387</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>271</v>
-      </c>
-      <c r="D18" s="7">
-        <v>191478</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>269</v>
-      </c>
-      <c r="I18" s="7">
-        <v>186992</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>540</v>
-      </c>
-      <c r="N18" s="7">
-        <v>378470</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>82</v>
+      <c r="A16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2800,8 +2470,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFF979D-AEE2-4707-8673-79B2CD1DC9B1}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D613413-83C7-4942-B247-6BA01C14E7E0}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2817,7 +2487,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2920,86 +2590,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18856</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12775</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N5" s="7">
+        <v>31630</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,147 +2690,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18856</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12775</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N6" s="7">
+        <v>31630</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2277</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2099</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" s="7">
+        <v>7</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4376</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="D8" s="7">
-        <v>12775</v>
+        <v>103633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I8" s="7">
-        <v>18856</v>
+        <v>95593</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="N8" s="7">
-        <v>31630</v>
+        <v>199225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,99 +2845,99 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D9" s="7">
-        <v>12775</v>
+        <v>105910</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I9" s="7">
-        <v>18856</v>
+        <v>97692</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="N9" s="7">
-        <v>31630</v>
+        <v>203601</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2099</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>2277</v>
+        <v>700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>4376</v>
+        <v>700</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>151</v>
@@ -3258,52 +2946,52 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>95593</v>
+        <v>37770</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7">
+        <v>36959</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="7">
-        <v>158</v>
-      </c>
-      <c r="I11" s="7">
-        <v>103633</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>109</v>
+      </c>
+      <c r="N11" s="7">
+        <v>74729</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M11" s="7">
-        <v>298</v>
-      </c>
-      <c r="N11" s="7">
-        <v>199225</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,153 +3000,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>97692</v>
+        <v>37770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>105910</v>
+        <v>37659</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="N12" s="7">
-        <v>203601</v>
+        <v>75429</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>700</v>
+        <v>2277</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2799</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>700</v>
+        <v>5075</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>36959</v>
+        <v>160259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="I14" s="7">
-        <v>37770</v>
+        <v>145326</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>109</v>
+        <v>452</v>
       </c>
       <c r="N14" s="7">
-        <v>74729</v>
+        <v>305586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,216 +3155,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="D15" s="7">
-        <v>37659</v>
+        <v>162536</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="I15" s="7">
-        <v>37770</v>
+        <v>148125</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>75429</v>
+        <v>310661</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2799</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2277</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5075</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>211</v>
-      </c>
-      <c r="D17" s="7">
-        <v>145326</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17" s="7">
-        <v>241</v>
-      </c>
-      <c r="I17" s="7">
-        <v>160259</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M17" s="7">
-        <v>452</v>
-      </c>
-      <c r="N17" s="7">
-        <v>305586</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>148125</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>245</v>
-      </c>
-      <c r="I18" s="7">
-        <v>162536</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>460</v>
-      </c>
-      <c r="N18" s="7">
-        <v>310661</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>82</v>
+      <c r="A16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
